--- a/Documents/Plan/Contacts.xlsx
+++ b/Documents/Plan/Contacts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -96,13 +96,37 @@
   </si>
   <si>
     <t>0936 232 008</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>luyenbaoanh@gmail.com</t>
+  </si>
+  <si>
+    <t>phongdckz@gmail.com</t>
+  </si>
+  <si>
+    <t>0979 064 208</t>
+  </si>
+  <si>
+    <t>hoangfeng2608@gmail.com</t>
+  </si>
+  <si>
+    <t>0904 882 411</t>
+  </si>
+  <si>
+    <t>huonglx94@gmail.com</t>
+  </si>
+  <si>
+    <t>01649 132 648</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +145,12 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -169,17 +199,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -263,13 +321,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -319,6 +370,13 @@
         <horizontal style="hair">
           <color auto="1"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -349,38 +407,22 @@
         </vertical>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="4">
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
     <tableStyle name="TableStyleMedium2 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="totalRow" dxfId="6"/>
-      <tableStyleElement type="firstColumn" dxfId="5"/>
-      <tableStyleElement type="lastColumn" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -395,15 +437,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:E11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="15">
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <tableColumns count="6">
+    <tableColumn id="1" name="#" dataDxfId="5">
       <calculatedColumnFormula>IF(B3&lt;&gt;"",A2+1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Name" dataDxfId="17"/>
-    <tableColumn id="3" name="MSV" dataDxfId="16"/>
-    <tableColumn id="4" name="Role" dataDxfId="1"/>
-    <tableColumn id="5" name="SĐT" dataDxfId="0"/>
+    <tableColumn id="2" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" name="MSV" dataDxfId="3"/>
+    <tableColumn id="4" name="Role" dataDxfId="2"/>
+    <tableColumn id="6" name="Email" dataDxfId="0"/>
+    <tableColumn id="5" name="SĐT" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -706,30 +749,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,11 +788,14 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -757,11 +806,12 @@
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>IF(B4&lt;&gt;"",A3+1,"")</f>
         <v>2</v>
@@ -775,11 +825,14 @@
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A11" si="0">IF(B5&lt;&gt;"",A4+1,"")</f>
         <v>3</v>
@@ -793,9 +846,14 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -809,9 +867,14 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -825,9 +888,10 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="10"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -841,9 +905,14 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -857,32 +926,34 @@
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="10"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="10"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Plan/Contacts.xlsx
+++ b/Documents/Plan/Contacts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -120,13 +120,28 @@
   </si>
   <si>
     <t>01649 132 648</t>
+  </si>
+  <si>
+    <t>sonhx@fe.edu.vn</t>
+  </si>
+  <si>
+    <t>luatpd2794@gmail.com</t>
+  </si>
+  <si>
+    <t>01656 885 023</t>
+  </si>
+  <si>
+    <t>dota.faceit@gmail.com</t>
+  </si>
+  <si>
+    <t>0868 463 132</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,7 +165,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,10 +203,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,9 +215,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -202,28 +224,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -445,8 +483,8 @@
     <tableColumn id="2" name="Name" dataDxfId="4"/>
     <tableColumn id="3" name="MSV" dataDxfId="3"/>
     <tableColumn id="4" name="Role" dataDxfId="2"/>
-    <tableColumn id="6" name="Email" dataDxfId="0"/>
-    <tableColumn id="5" name="SĐT" dataDxfId="1"/>
+    <tableColumn id="6" name="Email" dataDxfId="1"/>
+    <tableColumn id="5" name="SĐT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -752,7 +790,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -760,20 +798,20 @@
     <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="2" customWidth="1"/>
     <col min="3" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -788,7 +826,7 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -796,138 +834,148 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="10">
         <f>IF(B4&lt;&gt;"",A3+1,"")</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="10">
         <f t="shared" ref="A5:A11" si="0">IF(B5&lt;&gt;"",A4+1,"")</f>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
@@ -936,7 +984,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -955,13 +1003,16 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <ignoredErrors>
     <ignoredError sqref="A3" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>